--- a/medicine/Psychotrope/Café-charbon/Café-charbon.xlsx
+++ b/medicine/Psychotrope/Café-charbon/Café-charbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9-charbon</t>
+          <t>Café-charbon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XIXe siècle, les cafés-charbons étaient des établissements la plupart du temps tenus par des Auvergnats surnommés bougnats, où l'on vendait du café, du vin et du charbon. Par métonymie, le lieu s'appelait également un bougnat[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, les cafés-charbons étaient des établissements la plupart du temps tenus par des Auvergnats surnommés bougnats, où l'on vendait du café, du vin et du charbon. Par métonymie, le lieu s'appelait également un bougnat.
 Ces établissements étaient principalement concentrés dans le 11e arrondissement de Paris et, notamment, dans la rue de Lappe.
 </t>
         </is>
